--- a/TRAZABILIDAD BODEGA JAIRO PINEDA AGO2022/EQUIPOS BODEGA/P13NDC40-CLAVO PFNA  ACERO # 1.xlsx
+++ b/TRAZABILIDAD BODEGA JAIRO PINEDA AGO2022/EQUIPOS BODEGA/P13NDC40-CLAVO PFNA  ACERO # 1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\TRAZABILIDAD BODEGA JAIRO PINEDA AGO2022\EQUIPOS BODEGA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\TRAZABILIDAD BODEGA JAIRO PINEDA AGO2022\EQUIPOS BODEGA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D8F33FE-CD8E-4459-B88D-512A77070E1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="14_{09A7091B-23E7-47B9-91FD-3C9C8756377B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13110" yWindow="465" windowWidth="10365" windowHeight="12450" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="5" r:id="rId1"/>
@@ -19,17 +19,6 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -137,7 +126,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="256">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="255">
   <si>
     <t>CANT.</t>
   </si>
@@ -338,9 +327,6 @@
   </si>
   <si>
     <t>210227628</t>
-  </si>
-  <si>
-    <t>200821743</t>
   </si>
   <si>
     <t>210227629</t>
@@ -912,10 +898,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
-    <numFmt numFmtId="7" formatCode="&quot;$&quot;#,##0.00;&quot;$&quot;\-#,##0.00"/>
-    <numFmt numFmtId="44" formatCode="_ &quot;$&quot;* #,##0.00_ ;_ &quot;$&quot;* \-#,##0.00_ ;_ &quot;$&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00;&quot;$&quot;\-#,##0.00"/>
+    <numFmt numFmtId="165" formatCode="_ &quot;$&quot;* #,##0.00_ ;_ &quot;$&quot;* \-#,##0.00_ ;_ &quot;$&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="166" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="167" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
   <fonts count="26" x14ac:knownFonts="1">
     <font>
@@ -1296,8 +1282,8 @@
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="25" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="25" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1359,7 +1345,7 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1475,11 +1461,11 @@
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="7" fontId="2" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
@@ -1592,9 +1578,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - Tema de 2022">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1632,7 +1618,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1738,7 +1724,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1880,7 +1866,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1890,8 +1876,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G205"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A80" zoomScale="66" zoomScaleNormal="66" workbookViewId="0">
-      <selection activeCell="G100" sqref="G100"/>
+    <sheetView tabSelected="1" topLeftCell="A65" zoomScale="66" zoomScaleNormal="66" workbookViewId="0">
+      <selection activeCell="B85" sqref="B85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.42578125" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1919,10 +1905,10 @@
       <c r="A2" s="38"/>
       <c r="B2" s="39"/>
       <c r="C2" s="75" t="s">
+        <v>176</v>
+      </c>
+      <c r="D2" s="77" t="s">
         <v>177</v>
-      </c>
-      <c r="D2" s="77" t="s">
-        <v>178</v>
       </c>
       <c r="E2" s="78"/>
       <c r="F2" s="21"/>
@@ -1933,7 +1919,7 @@
       <c r="B3" s="41"/>
       <c r="C3" s="76"/>
       <c r="D3" s="52" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E3" s="42"/>
       <c r="F3" s="22"/>
@@ -1943,10 +1929,10 @@
       <c r="A4" s="40"/>
       <c r="B4" s="41"/>
       <c r="C4" s="79" t="s">
+        <v>179</v>
+      </c>
+      <c r="D4" s="81" t="s">
         <v>180</v>
-      </c>
-      <c r="D4" s="81" t="s">
-        <v>181</v>
       </c>
       <c r="E4" s="82"/>
       <c r="F4" s="22"/>
@@ -1957,7 +1943,7 @@
       <c r="B5" s="44"/>
       <c r="C5" s="80"/>
       <c r="D5" s="83" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E5" s="84"/>
     </row>
@@ -1975,7 +1961,7 @@
       <c r="B7" s="15"/>
       <c r="C7" s="23">
         <f ca="1">NOW()</f>
-        <v>45392.6877775463</v>
+        <v>45397.853370949073</v>
       </c>
       <c r="D7" s="15" t="s">
         <v>33</v>
@@ -1997,13 +1983,13 @@
       </c>
       <c r="B9" s="15"/>
       <c r="C9" s="47" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D9" s="17" t="s">
         <v>35</v>
       </c>
       <c r="E9" s="48" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="10" spans="1:7" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -2015,17 +2001,17 @@
     </row>
     <row r="11" spans="1:7" s="10" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="73" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B11" s="74"/>
       <c r="C11" s="16" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D11" s="17" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E11" s="49" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="12" spans="1:7" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -2041,7 +2027,7 @@
       </c>
       <c r="B13" s="15"/>
       <c r="C13" s="18" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D13" s="17" t="s">
         <v>37</v>
@@ -2069,7 +2055,7 @@
         <v>39</v>
       </c>
       <c r="E15" s="19" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="16" spans="1:7" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -2085,7 +2071,7 @@
       </c>
       <c r="B17" s="15"/>
       <c r="C17" s="16" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D17" s="13"/>
       <c r="E17" s="12"/>
@@ -2148,10 +2134,10 @@
         <v>31</v>
       </c>
       <c r="F23" s="67" t="s">
+        <v>250</v>
+      </c>
+      <c r="G23" s="67" t="s">
         <v>251</v>
-      </c>
-      <c r="G23" s="67" t="s">
-        <v>252</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
@@ -2162,7 +2148,7 @@
         <v>210227931</v>
       </c>
       <c r="C24" s="57" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D24" s="58">
         <v>1</v>
@@ -2184,7 +2170,7 @@
         <v>221255016</v>
       </c>
       <c r="C25" s="57" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D25" s="58">
         <v>1</v>
@@ -2206,7 +2192,7 @@
         <v>210227933</v>
       </c>
       <c r="C26" s="57" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D26" s="58">
         <v>1</v>
@@ -2234,13 +2220,13 @@
     </row>
     <row r="28" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A28" s="33" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B28" s="33">
         <v>221255018</v>
       </c>
       <c r="C28" s="57" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D28" s="58">
         <v>1</v>
@@ -2256,13 +2242,13 @@
     </row>
     <row r="29" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A29" s="33" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B29" s="33">
         <v>221255019</v>
       </c>
       <c r="C29" s="57" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D29" s="58">
         <v>1</v>
@@ -2278,13 +2264,13 @@
     </row>
     <row r="30" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A30" s="33" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B30" s="33">
         <v>221052547</v>
       </c>
       <c r="C30" s="57" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D30" s="58">
         <v>1</v>
@@ -2300,13 +2286,13 @@
     </row>
     <row r="31" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A31" s="33" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B31" s="33">
         <v>221052548</v>
       </c>
       <c r="C31" s="57" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D31" s="58">
         <v>1</v>
@@ -2334,13 +2320,13 @@
     </row>
     <row r="33" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A33" s="33" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B33" s="33">
         <v>221255020</v>
       </c>
       <c r="C33" s="57" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D33" s="58">
         <v>1</v>
@@ -2356,13 +2342,13 @@
     </row>
     <row r="34" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A34" s="33" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B34" s="33">
         <v>221255021</v>
       </c>
       <c r="C34" s="57" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D34" s="58">
         <v>1</v>
@@ -2378,13 +2364,13 @@
     </row>
     <row r="35" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A35" s="33" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B35" s="33">
         <v>221255022</v>
       </c>
       <c r="C35" s="57" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D35" s="58">
         <v>1</v>
@@ -2412,13 +2398,13 @@
     </row>
     <row r="37" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A37" s="33" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B37" s="33">
         <v>221255023</v>
       </c>
       <c r="C37" s="57" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D37" s="58">
         <v>1</v>
@@ -2434,13 +2420,13 @@
     </row>
     <row r="38" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A38" s="33" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B38" s="33">
         <v>221052546</v>
       </c>
       <c r="C38" s="57" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D38" s="58">
         <v>1</v>
@@ -2456,13 +2442,13 @@
     </row>
     <row r="39" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A39" s="33" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B39" s="33">
         <v>210227942</v>
       </c>
       <c r="C39" s="57" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D39" s="58">
         <v>1</v>
@@ -2496,7 +2482,7 @@
         <v>210228003</v>
       </c>
       <c r="C41" s="57" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D41" s="58">
         <v>1</v>
@@ -2518,7 +2504,7 @@
         <v>210228004</v>
       </c>
       <c r="C42" s="57" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D42" s="58">
         <v>1</v>
@@ -2540,7 +2526,7 @@
         <v>221255029</v>
       </c>
       <c r="C43" s="57" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D43" s="58">
         <v>1</v>
@@ -2562,7 +2548,7 @@
         <v>210227996</v>
       </c>
       <c r="C44" s="57" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D44" s="58">
         <v>1</v>
@@ -2579,7 +2565,7 @@
         <v>221255033</v>
       </c>
       <c r="C45" s="57" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D45" s="58">
         <v>1</v>
@@ -2618,7 +2604,7 @@
         <v>210228005</v>
       </c>
       <c r="C47" s="57" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D47" s="58">
         <v>1</v>
@@ -2640,7 +2626,7 @@
         <v>210228006</v>
       </c>
       <c r="C48" s="57" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D48" s="58">
         <v>1</v>
@@ -2662,7 +2648,7 @@
         <v>210227998</v>
       </c>
       <c r="C49" s="57" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D49" s="58">
         <v>1</v>
@@ -2679,7 +2665,7 @@
         <v>210227999</v>
       </c>
       <c r="C50" s="57" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D50" s="58">
         <v>1</v>
@@ -2701,7 +2687,7 @@
         <v>210228000</v>
       </c>
       <c r="C51" s="57" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D51" s="58">
         <v>1</v>
@@ -2734,13 +2720,13 @@
     </row>
     <row r="53" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A53" s="33" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B53" s="33">
         <v>210228007</v>
       </c>
       <c r="C53" s="57" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D53" s="58">
         <v>1</v>
@@ -2756,13 +2742,13 @@
     </row>
     <row r="54" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A54" s="33" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B54" s="33">
         <v>210228008</v>
       </c>
       <c r="C54" s="57" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D54" s="58">
         <v>1</v>
@@ -2773,13 +2759,13 @@
     </row>
     <row r="55" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A55" s="33" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B55" s="33">
         <v>210228182</v>
       </c>
       <c r="C55" s="57" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D55" s="58">
         <v>1</v>
@@ -2795,13 +2781,13 @@
     </row>
     <row r="56" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A56" s="33" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B56" s="33">
         <v>210228181</v>
       </c>
       <c r="C56" s="57" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D56" s="58">
         <v>1</v>
@@ -2817,13 +2803,13 @@
     </row>
     <row r="57" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A57" s="33" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B57" s="33">
         <v>210228176</v>
       </c>
       <c r="C57" s="57" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D57" s="58">
         <v>1</v>
@@ -2839,13 +2825,13 @@
     </row>
     <row r="58" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A58" s="33" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B58" s="33">
         <v>210328875</v>
       </c>
       <c r="C58" s="57" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D58" s="58">
         <v>1</v>
@@ -2861,13 +2847,13 @@
     </row>
     <row r="59" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A59" s="33" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B59" s="33">
         <v>210228178</v>
       </c>
       <c r="C59" s="57" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D59" s="58">
         <v>1</v>
@@ -2895,13 +2881,13 @@
     </row>
     <row r="61" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A61" s="33" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B61" s="33">
         <v>210228009</v>
       </c>
       <c r="C61" s="57" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D61" s="58">
         <v>1</v>
@@ -2917,13 +2903,13 @@
     </row>
     <row r="62" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A62" s="33" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B62" s="33">
         <v>210228010</v>
       </c>
       <c r="C62" s="57" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D62" s="58">
         <v>1</v>
@@ -2939,13 +2925,13 @@
     </row>
     <row r="63" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A63" s="33" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B63" s="33">
         <v>210228001</v>
       </c>
       <c r="C63" s="57" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D63" s="58">
         <v>1</v>
@@ -2961,13 +2947,13 @@
     </row>
     <row r="64" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A64" s="33" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B64" s="33">
         <v>210228002</v>
       </c>
       <c r="C64" s="57" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D64" s="58">
         <v>1</v>
@@ -2978,13 +2964,13 @@
     </row>
     <row r="65" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A65" s="33" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B65" s="33">
         <v>210228177</v>
       </c>
       <c r="C65" s="57" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D65" s="58">
         <v>1</v>
@@ -3000,13 +2986,13 @@
     </row>
     <row r="66" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A66" s="33" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B66" s="33">
         <v>221255047</v>
       </c>
       <c r="C66" s="57" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D66" s="58">
         <v>1</v>
@@ -3022,13 +3008,13 @@
     </row>
     <row r="67" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A67" s="33" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B67" s="33">
         <v>210228179</v>
       </c>
       <c r="C67" s="57" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D67" s="58">
         <v>1</v>
@@ -3067,7 +3053,7 @@
         <v>59</v>
       </c>
       <c r="C69" s="57" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D69" s="58">
         <v>1</v>
@@ -3084,7 +3070,7 @@
         <v>221255051</v>
       </c>
       <c r="C70" s="57" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D70" s="58">
         <v>1</v>
@@ -3106,7 +3092,7 @@
         <v>221255052</v>
       </c>
       <c r="C71" s="57" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D71" s="58">
         <v>1</v>
@@ -3128,7 +3114,7 @@
         <v>221255053</v>
       </c>
       <c r="C72" s="57" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D72" s="58">
         <v>1</v>
@@ -3150,7 +3136,7 @@
         <v>221255054</v>
       </c>
       <c r="C73" s="57" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D73" s="58">
         <v>1</v>
@@ -3169,10 +3155,10 @@
         <v>26</v>
       </c>
       <c r="B74" s="33">
-        <v>210328869</v>
+        <v>221255055</v>
       </c>
       <c r="C74" s="57" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D74" s="58">
         <v>1</v>
@@ -3189,7 +3175,7 @@
         <v>60</v>
       </c>
       <c r="C75" s="57" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D75" s="58">
         <v>1</v>
@@ -3211,7 +3197,7 @@
         <v>61</v>
       </c>
       <c r="C76" s="57" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D76" s="58">
         <v>1</v>
@@ -3233,7 +3219,7 @@
         <v>62</v>
       </c>
       <c r="C77" s="57" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D77" s="58">
         <v>1</v>
@@ -3255,7 +3241,7 @@
         <v>210328873</v>
       </c>
       <c r="C78" s="57" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D78" s="58">
         <v>1</v>
@@ -3289,7 +3275,7 @@
         <v>200821741</v>
       </c>
       <c r="C80" s="57" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D80" s="58">
         <v>2</v>
@@ -3311,7 +3297,7 @@
         <v>64</v>
       </c>
       <c r="C81" s="57" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D81" s="58">
         <v>1</v>
@@ -3333,7 +3319,7 @@
         <v>65</v>
       </c>
       <c r="C82" s="57" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D82" s="58">
         <v>2</v>
@@ -3349,13 +3335,13 @@
     </row>
     <row r="83" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A83" s="33" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B83" s="33" t="s">
         <v>66</v>
       </c>
       <c r="C83" s="57" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D83" s="58">
         <v>2</v>
@@ -3373,11 +3359,11 @@
       <c r="A84" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="B84" s="33" t="s">
-        <v>67</v>
+      <c r="B84" s="33">
+        <v>200821743</v>
       </c>
       <c r="C84" s="57" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D84" s="58">
         <v>2</v>
@@ -3396,10 +3382,10 @@
         <v>11</v>
       </c>
       <c r="B85" s="33" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C85" s="57" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D85" s="58">
         <v>2</v>
@@ -3421,7 +3407,7 @@
         <v>200821745</v>
       </c>
       <c r="C86" s="57" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D86" s="58">
         <v>2</v>
@@ -3443,7 +3429,7 @@
         <v>190703798</v>
       </c>
       <c r="C87" s="57" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D87" s="58">
         <v>2</v>
@@ -3465,7 +3451,7 @@
         <v>200821747</v>
       </c>
       <c r="C88" s="57" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D88" s="58">
         <v>2</v>
@@ -3487,7 +3473,7 @@
         <v>210227630</v>
       </c>
       <c r="C89" s="57" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D89" s="58">
         <v>2</v>
@@ -3509,7 +3495,7 @@
         <v>210227631</v>
       </c>
       <c r="C90" s="57" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D90" s="58">
         <v>2</v>
@@ -3528,10 +3514,10 @@
         <v>17</v>
       </c>
       <c r="B91" s="33" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C91" s="57" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D91" s="58">
         <v>2</v>
@@ -3553,7 +3539,7 @@
         <v>210227632</v>
       </c>
       <c r="C92" s="57" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D92" s="58">
         <v>2</v>
@@ -3575,7 +3561,7 @@
         <v>210227633</v>
       </c>
       <c r="C93" s="57" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D93" s="58">
         <v>2</v>
@@ -3597,7 +3583,7 @@
         <v>210227635</v>
       </c>
       <c r="C94" s="57" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D94" s="58">
         <v>2</v>
@@ -3619,7 +3605,7 @@
         <v>210227636</v>
       </c>
       <c r="C95" s="57" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D95" s="58">
         <v>2</v>
@@ -3635,13 +3621,13 @@
     </row>
     <row r="96" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A96" s="33" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B96" s="33">
         <v>210227637</v>
       </c>
       <c r="C96" s="57" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D96" s="58">
         <v>2</v>
@@ -3674,7 +3660,7 @@
       <c r="D98" s="32"/>
       <c r="E98" s="26"/>
       <c r="F98" s="69" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="G98" s="70">
         <f>SUM(G22:G97)</f>
@@ -3688,7 +3674,7 @@
       <c r="D99" s="32"/>
       <c r="E99" s="26"/>
       <c r="F99" s="71" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="G99" s="70">
         <f>+G98*0.15</f>
@@ -3702,7 +3688,7 @@
       <c r="D100" s="32"/>
       <c r="E100" s="26"/>
       <c r="F100" s="69" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="G100" s="70">
         <f>+G98+G99</f>
@@ -3741,7 +3727,7 @@
       <c r="A105" s="25"/>
       <c r="B105" s="60"/>
       <c r="C105" s="61" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D105" s="26"/>
       <c r="E105" s="8"/>
@@ -3761,7 +3747,7 @@
       <c r="A107" s="6"/>
       <c r="B107" s="28"/>
       <c r="C107" s="27" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D107" s="6"/>
       <c r="E107" s="7"/>
@@ -3772,7 +3758,7 @@
         <v>1</v>
       </c>
       <c r="C108" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D108" s="6"/>
       <c r="E108" s="7"/>
@@ -3783,7 +3769,7 @@
         <v>1</v>
       </c>
       <c r="C109" s="34" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D109" s="6"/>
       <c r="E109" s="7"/>
@@ -3794,7 +3780,7 @@
         <v>1</v>
       </c>
       <c r="C110" s="34" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D110" s="6"/>
       <c r="E110" s="7"/>
@@ -3805,7 +3791,7 @@
         <v>1</v>
       </c>
       <c r="C111" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D111" s="6"/>
       <c r="E111" s="7"/>
@@ -3816,7 +3802,7 @@
         <v>1</v>
       </c>
       <c r="C112" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D112" s="6"/>
       <c r="E112" s="7"/>
@@ -3827,7 +3813,7 @@
         <v>1</v>
       </c>
       <c r="C113" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D113" s="6"/>
       <c r="E113" s="7"/>
@@ -3838,7 +3824,7 @@
         <v>1</v>
       </c>
       <c r="C114" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D114" s="6"/>
       <c r="E114" s="7"/>
@@ -3849,7 +3835,7 @@
         <v>1</v>
       </c>
       <c r="C115" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D115" s="6"/>
       <c r="E115" s="7"/>
@@ -3860,7 +3846,7 @@
         <v>1</v>
       </c>
       <c r="C116" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D116" s="6"/>
       <c r="E116" s="7"/>
@@ -3871,7 +3857,7 @@
         <v>1</v>
       </c>
       <c r="C117" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D117" s="6"/>
       <c r="E117" s="7"/>
@@ -3882,7 +3868,7 @@
         <v>1</v>
       </c>
       <c r="C118" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D118" s="6"/>
       <c r="E118" s="7"/>
@@ -3893,7 +3879,7 @@
         <v>1</v>
       </c>
       <c r="C119" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D119" s="6"/>
       <c r="E119" s="7"/>
@@ -3904,7 +3890,7 @@
         <v>1</v>
       </c>
       <c r="C120" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D120" s="6"/>
       <c r="E120" s="7"/>
@@ -3915,7 +3901,7 @@
         <v>2</v>
       </c>
       <c r="C121" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D121" s="6"/>
       <c r="E121" s="7"/>
@@ -3926,7 +3912,7 @@
         <v>1</v>
       </c>
       <c r="C122" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D122" s="6"/>
       <c r="E122" s="7"/>
@@ -3937,7 +3923,7 @@
         <v>2</v>
       </c>
       <c r="C123" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D123" s="6"/>
       <c r="E123" s="7"/>
@@ -3948,7 +3934,7 @@
         <v>2</v>
       </c>
       <c r="C124" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D124" s="6"/>
       <c r="E124" s="7"/>
@@ -3959,7 +3945,7 @@
         <v>2</v>
       </c>
       <c r="C125" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D125" s="6"/>
       <c r="E125" s="7"/>
@@ -3989,7 +3975,7 @@
         <v>1</v>
       </c>
       <c r="C128" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D128" s="6"/>
       <c r="E128" s="7"/>
@@ -4000,7 +3986,7 @@
         <v>1</v>
       </c>
       <c r="C129" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D129" s="6"/>
       <c r="E129" s="7"/>
@@ -4011,7 +3997,7 @@
         <v>1</v>
       </c>
       <c r="C130" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D130" s="6"/>
       <c r="E130" s="7"/>
@@ -4022,7 +4008,7 @@
         <v>1</v>
       </c>
       <c r="C131" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D131" s="6"/>
       <c r="E131" s="7"/>
@@ -4033,7 +4019,7 @@
         <v>1</v>
       </c>
       <c r="C132" s="5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D132" s="6"/>
       <c r="E132" s="7"/>
@@ -4044,7 +4030,7 @@
         <v>1</v>
       </c>
       <c r="C133" s="5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D133" s="6"/>
       <c r="E133" s="7"/>
@@ -4055,7 +4041,7 @@
         <v>1</v>
       </c>
       <c r="C134" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D134" s="6"/>
       <c r="E134" s="7"/>
@@ -4066,7 +4052,7 @@
         <v>1</v>
       </c>
       <c r="C135" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D135" s="6"/>
       <c r="E135" s="7"/>
@@ -4077,7 +4063,7 @@
         <v>1</v>
       </c>
       <c r="C136" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D136" s="6"/>
       <c r="E136" s="7"/>
@@ -4088,7 +4074,7 @@
         <v>3</v>
       </c>
       <c r="C137" s="5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D137" s="6"/>
       <c r="E137" s="7"/>
@@ -4099,7 +4085,7 @@
         <v>1</v>
       </c>
       <c r="C138" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D138" s="6"/>
       <c r="E138" s="7"/>
@@ -4110,7 +4096,7 @@
         <v>1</v>
       </c>
       <c r="C139" s="5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D139" s="6"/>
       <c r="E139" s="7"/>
@@ -4121,7 +4107,7 @@
         <v>1</v>
       </c>
       <c r="C140" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D140" s="6"/>
       <c r="E140" s="7"/>
@@ -4132,7 +4118,7 @@
         <v>1</v>
       </c>
       <c r="C141" s="5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D141" s="6"/>
       <c r="E141" s="7"/>
@@ -4143,7 +4129,7 @@
         <v>5</v>
       </c>
       <c r="C142" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D142" s="6"/>
       <c r="E142" s="7"/>
@@ -4173,7 +4159,7 @@
         <v>1</v>
       </c>
       <c r="C145" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D145" s="6"/>
       <c r="E145" s="7"/>
@@ -4184,7 +4170,7 @@
         <v>1</v>
       </c>
       <c r="C146" s="5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D146" s="6"/>
       <c r="E146" s="7"/>
@@ -4195,7 +4181,7 @@
         <v>1</v>
       </c>
       <c r="C147" s="5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D147" s="6"/>
       <c r="E147" s="7"/>
@@ -4206,7 +4192,7 @@
         <v>1</v>
       </c>
       <c r="C148" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D148" s="6"/>
       <c r="E148" s="7"/>
@@ -4217,7 +4203,7 @@
         <v>1</v>
       </c>
       <c r="C149" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D149" s="6"/>
       <c r="E149" s="7"/>
@@ -4228,7 +4214,7 @@
         <v>1</v>
       </c>
       <c r="C150" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D150" s="6"/>
       <c r="E150" s="7"/>
@@ -4239,7 +4225,7 @@
         <v>1</v>
       </c>
       <c r="C151" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D151" s="6"/>
       <c r="E151" s="7"/>
@@ -4250,7 +4236,7 @@
         <v>1</v>
       </c>
       <c r="C152" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D152" s="6"/>
       <c r="E152" s="7"/>
@@ -4261,7 +4247,7 @@
         <v>1</v>
       </c>
       <c r="C153" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D153" s="6"/>
       <c r="E153" s="7"/>
@@ -4272,7 +4258,7 @@
         <v>1</v>
       </c>
       <c r="C154" s="5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D154" s="6"/>
       <c r="E154" s="7"/>
@@ -4283,7 +4269,7 @@
         <v>1</v>
       </c>
       <c r="C155" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D155" s="6"/>
       <c r="E155" s="7"/>
@@ -4294,7 +4280,7 @@
         <v>3</v>
       </c>
       <c r="C156" s="5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D156" s="6"/>
       <c r="E156" s="7"/>
@@ -4305,7 +4291,7 @@
         <v>3</v>
       </c>
       <c r="C157" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D157" s="6"/>
       <c r="E157" s="7"/>
@@ -4316,7 +4302,7 @@
         <v>1</v>
       </c>
       <c r="C158" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D158" s="6"/>
       <c r="E158" s="7"/>
@@ -4327,7 +4313,7 @@
         <v>1</v>
       </c>
       <c r="C159" s="5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D159" s="6"/>
       <c r="E159" s="7"/>
@@ -4338,7 +4324,7 @@
         <v>1</v>
       </c>
       <c r="C160" s="5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D160" s="6"/>
       <c r="E160" s="7"/>
@@ -4349,7 +4335,7 @@
         <v>1</v>
       </c>
       <c r="C161" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D161" s="6"/>
       <c r="E161" s="7"/>
@@ -4360,7 +4346,7 @@
         <v>1</v>
       </c>
       <c r="C162" s="5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D162" s="6"/>
       <c r="E162" s="7"/>
@@ -4371,7 +4357,7 @@
         <v>1</v>
       </c>
       <c r="C163" s="5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D163" s="6"/>
       <c r="E163" s="7"/>
@@ -4382,7 +4368,7 @@
         <v>3</v>
       </c>
       <c r="C164" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D164" s="6"/>
       <c r="E164" s="7"/>
@@ -4393,7 +4379,7 @@
         <v>1</v>
       </c>
       <c r="C165" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D165" s="6"/>
       <c r="E165" s="7"/>
@@ -4404,7 +4390,7 @@
         <v>2</v>
       </c>
       <c r="C166" s="5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D166" s="6"/>
       <c r="E166" s="7"/>
@@ -4432,7 +4418,7 @@
         <v>1</v>
       </c>
       <c r="C169" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D169" s="7"/>
     </row>
@@ -4442,7 +4428,7 @@
         <v>6</v>
       </c>
       <c r="C170" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D170" s="7"/>
     </row>
@@ -4452,7 +4438,7 @@
         <v>1</v>
       </c>
       <c r="C171" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D171" s="7"/>
     </row>
@@ -4462,7 +4448,7 @@
         <v>1</v>
       </c>
       <c r="C172" s="3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D172" s="7"/>
     </row>
@@ -4472,7 +4458,7 @@
         <v>1</v>
       </c>
       <c r="C173" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D173" s="7"/>
     </row>
@@ -4482,7 +4468,7 @@
         <v>2</v>
       </c>
       <c r="C174" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D174" s="7"/>
     </row>
@@ -4495,34 +4481,34 @@
     </row>
     <row r="177" spans="2:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B177" s="62" t="s">
+        <v>243</v>
+      </c>
+      <c r="C177" s="63" t="s">
         <v>244</v>
-      </c>
-      <c r="C177" s="63" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="178" spans="2:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B178" s="64"/>
       <c r="C178" s="63" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="179" spans="2:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B179" s="64"/>
       <c r="C179" s="63" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="180" spans="2:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B180" s="64"/>
       <c r="C180" s="63" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="181" spans="2:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B181" s="64"/>
       <c r="C181" s="63" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="182" spans="2:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -4531,22 +4517,22 @@
     </row>
     <row r="183" spans="2:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B183" s="65" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C183" s="66" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="184" spans="2:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B184" s="65"/>
       <c r="C184" s="66" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="185" spans="2:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B185" s="65"/>
       <c r="C185" s="66" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="186" spans="2:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -4555,31 +4541,31 @@
     </row>
     <row r="190" spans="2:3" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B190" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C190" s="29"/>
     </row>
     <row r="193" spans="2:3" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B193" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C193" s="29"/>
     </row>
     <row r="198" spans="2:3" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B198" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C198" s="29"/>
     </row>
     <row r="202" spans="2:3" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B202" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C202" s="29"/>
     </row>
     <row r="205" spans="2:3" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B205" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C205" s="29"/>
     </row>
